--- a/OB/Excel/r+-+-no+Ťci.xlsx
+++ b/OB/Excel/r+-+-no+Ťci.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1890" windowWidth="11850" windowHeight="5955" tabRatio="998" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="1890" windowWidth="11850" windowHeight="5955" tabRatio="998" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="MENU" sheetId="18" r:id="rId1"/>
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="523">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -1986,6 +1986,9 @@
   <si>
     <t>Kod działu</t>
   </si>
+  <si>
+    <t>Średnia</t>
+  </si>
 </sst>
 </file>
 
@@ -2003,7 +2006,7 @@
     <numFmt numFmtId="169" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="170" formatCode="#,##0;[Red]\-#,##0"/>
     <numFmt numFmtId="171" formatCode="#,##0.0"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0\ &quot;zł&quot;_-;\-* #,##0\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0\ &quot;zł&quot;_-;\-* #,##0\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="62">
     <font>
@@ -4020,6 +4023,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="6" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4239,6 +4247,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4247,20 +4264,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="6" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -4296,6 +4299,314 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:style val="42"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>wykres2!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dziewczynki</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>wykres2!$B$6:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>gry komputerowe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kino</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>książki</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>słuchanie muzyki</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>spacer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sport</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>telewizja</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wykres2!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>wykres2!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chłopcy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>wykres2!$B$6:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>gry komputerowe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kino</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>książki</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>słuchanie muzyki</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>spacer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sport</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>telewizja</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wykres2!$D$6:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="61318656"/>
+        <c:axId val="61320192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="61318656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61320192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="61320192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61318656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="0"/>
+            <c:dLblPos val="ctr"/>
+            <c:showVal val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>wykres2!$B$6:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>gry komputerowe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kino</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>książki</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>słuchanie muzyki</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>spacer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sport</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>telewizja</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wykres2!$E$6:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4371,6 +4682,71 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5233,10 +5609,10 @@
         <v>355</v>
       </c>
       <c r="H19" s="283"/>
-      <c r="I19" s="291"/>
-      <c r="J19" s="292"/>
-      <c r="K19" s="292"/>
-      <c r="L19" s="292"/>
+      <c r="I19" s="294"/>
+      <c r="J19" s="295"/>
+      <c r="K19" s="295"/>
+      <c r="L19" s="295"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1">
       <c r="B20" s="280"/>
@@ -5258,12 +5634,12 @@
     </row>
     <row r="23" spans="2:13" ht="15" customHeight="1">
       <c r="B23" s="280"/>
-      <c r="E23" s="293"/>
-      <c r="F23" s="293"/>
-      <c r="G23" s="293"/>
-      <c r="H23" s="293"/>
-      <c r="I23" s="293"/>
-      <c r="J23" s="293"/>
+      <c r="E23" s="296"/>
+      <c r="F23" s="296"/>
+      <c r="G23" s="296"/>
+      <c r="H23" s="296"/>
+      <c r="I23" s="296"/>
+      <c r="J23" s="296"/>
     </row>
     <row r="24" spans="2:13" ht="15" customHeight="1">
       <c r="B24" s="280"/>
@@ -5412,13 +5788,13 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75">
-      <c r="B6" s="317" t="s">
+      <c r="B6" s="320" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="317"/>
-      <c r="D6" s="317"/>
-      <c r="E6" s="317"/>
-      <c r="F6" s="317"/>
+      <c r="C6" s="320"/>
+      <c r="D6" s="320"/>
+      <c r="E6" s="320"/>
+      <c r="F6" s="320"/>
     </row>
     <row r="7" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="8" spans="2:6" ht="39" thickTop="1">
@@ -5633,12 +6009,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="317"/>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
+      <c r="A1" s="320"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="29"/>
@@ -5858,10 +6234,10 @@
       <c r="E19" s="69"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="E21" s="319"/>
-      <c r="F21" s="320"/>
-      <c r="G21" s="320"/>
-      <c r="H21" s="320"/>
+      <c r="E21" s="322"/>
+      <c r="F21" s="323"/>
+      <c r="G21" s="323"/>
+      <c r="H21" s="323"/>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" s="70"/>
@@ -6163,7 +6539,7 @@
       <c r="I14" s="18">
         <v>23</v>
       </c>
-      <c r="J14" s="372">
+      <c r="J14" s="291">
         <f>I14/$I$17</f>
         <v>0.28749999999999998</v>
       </c>
@@ -6193,7 +6569,7 @@
       <c r="I15" s="18">
         <v>12</v>
       </c>
-      <c r="J15" s="372">
+      <c r="J15" s="291">
         <f t="shared" ref="J15:J16" si="1">I15/$I$17</f>
         <v>0.15</v>
       </c>
@@ -6223,7 +6599,7 @@
       <c r="I16" s="18">
         <v>45</v>
       </c>
-      <c r="J16" s="372">
+      <c r="J16" s="291">
         <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
@@ -6251,7 +6627,7 @@
         <f>SUM(I14:I16)</f>
         <v>80</v>
       </c>
-      <c r="J17" s="373"/>
+      <c r="J17" s="292"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="18">
@@ -6628,7 +7004,7 @@
         <f>E9*F9</f>
         <v>20.130000000000003</v>
       </c>
-      <c r="H9" s="372">
+      <c r="H9" s="291">
         <f>G9/$G$20</f>
         <v>4.9111635651680668E-2</v>
       </c>
@@ -6653,7 +7029,7 @@
         <f t="shared" ref="G10:G19" si="0">E10*F10</f>
         <v>3.4952000000000001</v>
       </c>
-      <c r="H10" s="372">
+      <c r="H10" s="291">
         <f t="shared" ref="H10:H19" si="1">G10/$G$20</f>
         <v>8.5273218544338926E-3</v>
       </c>
@@ -6678,7 +7054,7 @@
         <f t="shared" si="0"/>
         <v>43.04</v>
       </c>
-      <c r="H11" s="372">
+      <c r="H11" s="291">
         <f t="shared" si="1"/>
         <v>0.10500570285386665</v>
       </c>
@@ -6703,7 +7079,7 @@
         <f t="shared" si="0"/>
         <v>4.6176000000000004</v>
       </c>
-      <c r="H12" s="372">
+      <c r="H12" s="291">
         <f t="shared" si="1"/>
         <v>1.1265667599860937E-2</v>
       </c>
@@ -6728,7 +7104,7 @@
         <f t="shared" si="0"/>
         <v>118.08</v>
       </c>
-      <c r="H13" s="372">
+      <c r="H13" s="291">
         <f t="shared" si="1"/>
         <v>0.28808256024592416</v>
       </c>
@@ -6753,7 +7129,7 @@
         <f t="shared" si="0"/>
         <v>25.28</v>
       </c>
-      <c r="H14" s="372">
+      <c r="H14" s="291">
         <f t="shared" si="1"/>
         <v>6.1676212085170753E-2</v>
       </c>
@@ -6778,7 +7154,7 @@
         <f t="shared" si="0"/>
         <v>6.9200000000000008</v>
       </c>
-      <c r="H15" s="372">
+      <c r="H15" s="291">
         <f t="shared" si="1"/>
         <v>1.6882887168883767E-2</v>
       </c>
@@ -6803,7 +7179,7 @@
         <f t="shared" si="0"/>
         <v>58.629999999999995</v>
       </c>
-      <c r="H16" s="372">
+      <c r="H16" s="291">
         <f t="shared" si="1"/>
         <v>0.1430409934554415</v>
       </c>
@@ -6828,7 +7204,7 @@
         <f t="shared" si="0"/>
         <v>16.522200000000002</v>
       </c>
-      <c r="H17" s="372">
+      <c r="H17" s="291">
         <f t="shared" si="1"/>
         <v>4.030960092221552E-2</v>
       </c>
@@ -6853,7 +7229,7 @@
         <f t="shared" si="0"/>
         <v>68.25</v>
       </c>
-      <c r="H18" s="372">
+      <c r="H18" s="291">
         <f t="shared" si="1"/>
         <v>0.16651113428848513</v>
       </c>
@@ -6878,7 +7254,7 @@
         <f t="shared" si="0"/>
         <v>44.917499999999997</v>
       </c>
-      <c r="H19" s="372">
+      <c r="H19" s="291">
         <f t="shared" si="1"/>
         <v>0.10958628387403707</v>
       </c>
@@ -6976,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="97">
-        <f>D7*E7</f>
+        <f t="shared" ref="F7:F18" si="0">D7*E7</f>
         <v>56000</v>
       </c>
     </row>
@@ -6994,7 +7370,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="97">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>234400</v>
       </c>
     </row>
@@ -7012,7 +7388,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="97">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>178800</v>
       </c>
     </row>
@@ -7030,7 +7406,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="97">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>270000</v>
       </c>
     </row>
@@ -7048,7 +7424,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="97">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>61000</v>
       </c>
     </row>
@@ -7066,7 +7442,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="97">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>152500</v>
       </c>
     </row>
@@ -7084,7 +7460,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="97">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>160500</v>
       </c>
     </row>
@@ -7102,7 +7478,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="97">
-        <f>D14*E14</f>
+        <f t="shared" si="0"/>
         <v>65000</v>
       </c>
     </row>
@@ -7120,7 +7496,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="97">
-        <f>D15*E15</f>
+        <f t="shared" si="0"/>
         <v>66000</v>
       </c>
     </row>
@@ -7138,7 +7514,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="97">
-        <f>D16*E16</f>
+        <f t="shared" si="0"/>
         <v>210000</v>
       </c>
     </row>
@@ -7156,7 +7532,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="97">
-        <f>D17*E17</f>
+        <f t="shared" si="0"/>
         <v>176000</v>
       </c>
     </row>
@@ -7174,7 +7550,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="97">
-        <f>D18*E18</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
     </row>
@@ -8903,32 +9279,32 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="322" t="s">
+      <c r="B7" s="325" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="304" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="301" t="s">
+      <c r="D7" s="304" t="s">
         <v>258</v>
       </c>
-      <c r="E7" s="321" t="s">
+      <c r="E7" s="324" t="s">
         <v>259</v>
       </c>
-      <c r="F7" s="321"/>
-      <c r="G7" s="321" t="s">
+      <c r="F7" s="324"/>
+      <c r="G7" s="324" t="s">
         <v>260</v>
       </c>
-      <c r="H7" s="321"/>
-      <c r="I7" s="321" t="s">
+      <c r="H7" s="324"/>
+      <c r="I7" s="324" t="s">
         <v>261</v>
       </c>
-      <c r="J7" s="321"/>
+      <c r="J7" s="324"/>
     </row>
     <row r="8" spans="2:10" ht="25.5">
-      <c r="B8" s="301"/>
-      <c r="C8" s="301"/>
-      <c r="D8" s="301"/>
+      <c r="B8" s="304"/>
+      <c r="C8" s="304"/>
+      <c r="D8" s="304"/>
       <c r="E8" s="12" t="s">
         <v>262</v>
       </c>
@@ -9147,7 +9523,7 @@
       <c r="D6" s="127">
         <v>21000</v>
       </c>
-      <c r="E6" s="374">
+      <c r="E6" s="293">
         <f>D6*$E$14</f>
         <v>86520</v>
       </c>
@@ -9162,7 +9538,7 @@
       <c r="D7" s="127">
         <v>12000</v>
       </c>
-      <c r="E7" s="374">
+      <c r="E7" s="293">
         <f t="shared" ref="E7:E12" si="0">D7*$E$14</f>
         <v>49440</v>
       </c>
@@ -9177,7 +9553,7 @@
       <c r="D8" s="127">
         <v>9000</v>
       </c>
-      <c r="E8" s="374">
+      <c r="E8" s="293">
         <f t="shared" si="0"/>
         <v>37080</v>
       </c>
@@ -9192,7 +9568,7 @@
       <c r="D9" s="127">
         <v>8400</v>
       </c>
-      <c r="E9" s="374">
+      <c r="E9" s="293">
         <f t="shared" si="0"/>
         <v>34608</v>
       </c>
@@ -9207,7 +9583,7 @@
       <c r="D10" s="127">
         <v>13000</v>
       </c>
-      <c r="E10" s="374">
+      <c r="E10" s="293">
         <f t="shared" si="0"/>
         <v>53560</v>
       </c>
@@ -9222,7 +9598,7 @@
       <c r="D11" s="127">
         <v>12500</v>
       </c>
-      <c r="E11" s="374">
+      <c r="E11" s="293">
         <f t="shared" si="0"/>
         <v>51500</v>
       </c>
@@ -9237,7 +9613,7 @@
       <c r="D12" s="130">
         <v>11000</v>
       </c>
-      <c r="E12" s="374">
+      <c r="E12" s="293">
         <f t="shared" si="0"/>
         <v>45320</v>
       </c>
@@ -9272,8 +9648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9348,7 +9724,9 @@
       <c r="B14" s="142" t="s">
         <v>332</v>
       </c>
-      <c r="C14" s="144"/>
+      <c r="C14" s="144">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -9541,13 +9919,13 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B12" s="294" t="s">
+      <c r="B12" s="297" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="295"/>
-      <c r="D12" s="295"/>
-      <c r="E12" s="295"/>
-      <c r="F12" s="296"/>
+      <c r="C12" s="298"/>
+      <c r="D12" s="298"/>
+      <c r="E12" s="298"/>
+      <c r="F12" s="299"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
         <v>2433</v>
@@ -9572,7 +9950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -9587,15 +9967,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.25" customHeight="1">
-      <c r="B3" s="323" t="s">
+      <c r="B3" s="326" t="s">
         <v>345</v>
       </c>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="323"/>
-      <c r="G3" s="323"/>
-      <c r="H3" s="323"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326"/>
     </row>
     <row r="4" spans="1:8" ht="15.75">
       <c r="B4" s="146"/>
@@ -9621,6 +10001,10 @@
       <c r="D6" s="147">
         <v>12</v>
       </c>
+      <c r="E6">
+        <f>SUM(C6:D6)</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="151" t="s">
@@ -9632,6 +10016,10 @@
       <c r="D7" s="147">
         <v>3</v>
       </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E12" si="0">SUM(C7:D7)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="151" t="s">
@@ -9643,6 +10031,10 @@
       <c r="D8" s="147">
         <v>1</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
       <c r="B9" s="151" t="s">
@@ -9654,6 +10046,10 @@
       <c r="D9" s="147">
         <v>3</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="151" t="s">
@@ -9665,6 +10061,10 @@
       <c r="D10" s="147">
         <v>0</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="151" t="s">
@@ -9676,6 +10076,10 @@
       <c r="D11" s="147">
         <v>10</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="151" t="s">
@@ -9687,20 +10091,36 @@
       <c r="D12" s="147">
         <v>4</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
       <c r="B13" s="148"/>
+      <c r="C13">
+        <f>SUM(C6:C12)</f>
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:E13" si="1">SUM(D6:D12)</f>
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="51" customHeight="1">
-      <c r="B14" s="323" t="s">
+      <c r="B14" s="326" t="s">
         <v>344</v>
       </c>
-      <c r="C14" s="323"/>
-      <c r="D14" s="323"/>
-      <c r="E14" s="323"/>
-      <c r="F14" s="323"/>
-      <c r="G14" s="323"/>
-      <c r="H14" s="323"/>
+      <c r="C14" s="326"/>
+      <c r="D14" s="326"/>
+      <c r="E14" s="326"/>
+      <c r="F14" s="326"/>
+      <c r="G14" s="326"/>
+      <c r="H14" s="326"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9714,6 +10134,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9721,7 +10142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
@@ -9731,48 +10154,48 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="48.75" customHeight="1">
-      <c r="B3" s="323" t="s">
+      <c r="B3" s="326" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="323"/>
-      <c r="G3" s="323"/>
-      <c r="H3" s="323"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1">
-      <c r="B4" s="323" t="s">
+      <c r="B4" s="326" t="s">
         <v>357</v>
       </c>
-      <c r="C4" s="323"/>
-      <c r="D4" s="323"/>
-      <c r="E4" s="323"/>
-      <c r="F4" s="323"/>
-      <c r="G4" s="323"/>
-      <c r="H4" s="323"/>
+      <c r="C4" s="326"/>
+      <c r="D4" s="326"/>
+      <c r="E4" s="326"/>
+      <c r="F4" s="326"/>
+      <c r="G4" s="326"/>
+      <c r="H4" s="326"/>
     </row>
     <row r="5" spans="1:8" s="156" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B5" s="323" t="s">
+      <c r="B5" s="326" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="324"/>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
+      <c r="C5" s="327"/>
+      <c r="D5" s="327"/>
+      <c r="E5" s="327"/>
+      <c r="F5" s="327"/>
+      <c r="G5" s="327"/>
+      <c r="H5" s="327"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B6" s="323" t="s">
+      <c r="B6" s="326" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="324"/>
-      <c r="D6" s="324"/>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="324"/>
-      <c r="H6" s="324"/>
+      <c r="C6" s="327"/>
+      <c r="D6" s="327"/>
+      <c r="E6" s="327"/>
+      <c r="F6" s="327"/>
+      <c r="G6" s="327"/>
+      <c r="H6" s="327"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9794,11 +10217,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -9807,13 +10233,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" customHeight="1">
-      <c r="B3" s="323" t="s">
+      <c r="B3" s="326" t="s">
         <v>347</v>
       </c>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="323"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="B4" s="145"/>
@@ -9832,6 +10258,9 @@
       <c r="F5" s="154">
         <v>1999</v>
       </c>
+      <c r="G5" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75">
       <c r="B6" s="155" t="s">
@@ -9849,6 +10278,10 @@
       <c r="F6" s="153">
         <v>11.1</v>
       </c>
+      <c r="G6">
+        <f>AVERAGE(C6:F6)</f>
+        <v>8.5750000000000011</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75">
       <c r="B7" s="155" t="s">
@@ -9866,6 +10299,10 @@
       <c r="F7" s="153">
         <v>11</v>
       </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G10" si="0">AVERAGE(C7:F7)</f>
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.75">
       <c r="B8" s="155" t="s">
@@ -9883,6 +10320,10 @@
       <c r="F8" s="153">
         <v>10.7</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75">
       <c r="B9" s="155" t="s">
@@ -9900,6 +10341,10 @@
       <c r="F9" s="153">
         <v>11.2</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8.375</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1">
       <c r="B10" s="155" t="s">
@@ -9917,33 +10362,55 @@
       <c r="F10" s="153">
         <v>10.9</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>8.4749999999999996</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="B11" s="148"/>
+      <c r="B11" s="148" t="s">
+        <v>522</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(C6:C10)</f>
+        <v>6.660000000000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:F11" si="1">AVERAGE(D6:D10)</f>
+        <v>7.2200000000000006</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>8.68</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>10.98</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="40.5" customHeight="1">
-      <c r="B12" s="323" t="s">
+      <c r="B12" s="326" t="s">
         <v>352</v>
       </c>
-      <c r="C12" s="323"/>
-      <c r="D12" s="323"/>
-      <c r="E12" s="323"/>
-      <c r="F12" s="323"/>
-      <c r="G12" s="323"/>
-      <c r="H12" s="323"/>
-      <c r="I12" s="323"/>
+      <c r="C12" s="326"/>
+      <c r="D12" s="326"/>
+      <c r="E12" s="326"/>
+      <c r="F12" s="326"/>
+      <c r="G12" s="326"/>
+      <c r="H12" s="326"/>
+      <c r="I12" s="326"/>
     </row>
     <row r="13" spans="1:9" ht="51.75" customHeight="1">
-      <c r="B13" s="325" t="s">
+      <c r="B13" s="328" t="s">
         <v>353</v>
       </c>
-      <c r="C13" s="326"/>
-      <c r="D13" s="326"/>
-      <c r="E13" s="326"/>
-      <c r="F13" s="326"/>
-      <c r="G13" s="326"/>
-      <c r="H13" s="326"/>
-      <c r="I13" s="326"/>
+      <c r="C13" s="329"/>
+      <c r="D13" s="329"/>
+      <c r="E13" s="329"/>
+      <c r="F13" s="329"/>
+      <c r="G13" s="329"/>
+      <c r="H13" s="329"/>
+      <c r="I13" s="329"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9979,16 +10446,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="66" customHeight="1">
-      <c r="B3" s="325" t="s">
+      <c r="B3" s="328" t="s">
         <v>372</v>
       </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326"/>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="166"/>
@@ -10138,10 +10605,10 @@
       <c r="B19" s="146"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="327" t="s">
+      <c r="B20" s="330" t="s">
         <v>368</v>
       </c>
-      <c r="C20" s="328"/>
+      <c r="C20" s="331"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="160" t="s">
@@ -10171,10 +10638,10 @@
       <c r="B25" s="145"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="327" t="s">
+      <c r="B26" s="330" t="s">
         <v>370</v>
       </c>
-      <c r="C26" s="328"/>
+      <c r="C26" s="331"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="160" t="s">
@@ -10330,14 +10797,14 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="75.75" customHeight="1">
-      <c r="B5" s="329" t="s">
+      <c r="B5" s="332" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="331"/>
+      <c r="C5" s="333"/>
+      <c r="D5" s="333"/>
+      <c r="E5" s="333"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="334"/>
     </row>
     <row r="6" spans="2:7" ht="18.75" customHeight="1">
       <c r="B6" s="169"/>
@@ -10348,14 +10815,14 @@
       <c r="G6" s="169"/>
     </row>
     <row r="7" spans="2:7" ht="32.25" customHeight="1">
-      <c r="B7" s="332" t="s">
+      <c r="B7" s="335" t="s">
         <v>380</v>
       </c>
-      <c r="C7" s="332"/>
-      <c r="D7" s="332"/>
-      <c r="E7" s="332"/>
-      <c r="F7" s="332"/>
-      <c r="G7" s="332"/>
+      <c r="C7" s="335"/>
+      <c r="D7" s="335"/>
+      <c r="E7" s="335"/>
+      <c r="F7" s="335"/>
+      <c r="G7" s="335"/>
     </row>
     <row r="8" spans="2:7" ht="9" customHeight="1">
       <c r="B8" s="170"/>
@@ -10558,32 +11025,32 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75">
-      <c r="B3" s="336" t="s">
+      <c r="B3" s="339" t="s">
         <v>401</v>
       </c>
-      <c r="C3" s="336"/>
+      <c r="C3" s="339"/>
     </row>
     <row r="4" spans="2:13" ht="39.75" customHeight="1">
-      <c r="B4" s="337" t="s">
+      <c r="B4" s="340" t="s">
         <v>402</v>
       </c>
-      <c r="C4" s="338"/>
-      <c r="D4" s="338"/>
-      <c r="E4" s="338"/>
-      <c r="F4" s="338"/>
-      <c r="G4" s="338"/>
-      <c r="H4" s="339"/>
+      <c r="C4" s="341"/>
+      <c r="D4" s="341"/>
+      <c r="E4" s="341"/>
+      <c r="F4" s="341"/>
+      <c r="G4" s="341"/>
+      <c r="H4" s="342"/>
     </row>
     <row r="5" spans="2:13" ht="19.5" customHeight="1">
-      <c r="B5" s="340" t="s">
+      <c r="B5" s="343" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="341"/>
-      <c r="D5" s="341"/>
-      <c r="E5" s="341"/>
-      <c r="F5" s="341"/>
-      <c r="G5" s="341"/>
-      <c r="H5" s="342"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="344"/>
+      <c r="F5" s="344"/>
+      <c r="G5" s="344"/>
+      <c r="H5" s="345"/>
     </row>
     <row r="6" spans="2:13" ht="9" customHeight="1">
       <c r="B6" s="177"/>
@@ -10595,13 +11062,13 @@
       <c r="H6" s="177"/>
     </row>
     <row r="7" spans="2:13" ht="15.75">
-      <c r="B7" s="343"/>
-      <c r="C7" s="343"/>
-      <c r="D7" s="343"/>
-      <c r="E7" s="343"/>
-      <c r="F7" s="343"/>
-      <c r="G7" s="343"/>
-      <c r="H7" s="343"/>
+      <c r="B7" s="346"/>
+      <c r="C7" s="346"/>
+      <c r="D7" s="346"/>
+      <c r="E7" s="346"/>
+      <c r="F7" s="346"/>
+      <c r="G7" s="346"/>
+      <c r="H7" s="346"/>
     </row>
     <row r="8" spans="2:13" ht="10.5" customHeight="1">
       <c r="B8" s="178"/>
@@ -10646,11 +11113,11 @@
       <c r="I10" s="180" t="s">
         <v>411</v>
       </c>
-      <c r="K10" s="335" t="s">
+      <c r="K10" s="338" t="s">
         <v>412</v>
       </c>
-      <c r="L10" s="335"/>
-      <c r="M10" s="335"/>
+      <c r="L10" s="338"/>
+      <c r="M10" s="338"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="181" t="s">
@@ -10678,10 +11145,10 @@
       <c r="K11" s="83" t="s">
         <v>415</v>
       </c>
-      <c r="L11" s="344" t="s">
+      <c r="L11" s="347" t="s">
         <v>416</v>
       </c>
-      <c r="M11" s="344"/>
+      <c r="M11" s="347"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="185" t="s">
@@ -10709,8 +11176,8 @@
       <c r="K12" s="46">
         <v>1</v>
       </c>
-      <c r="L12" s="333"/>
-      <c r="M12" s="333"/>
+      <c r="L12" s="336"/>
+      <c r="M12" s="336"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="185" t="s">
@@ -10738,8 +11205,8 @@
       <c r="K13" s="46">
         <v>2</v>
       </c>
-      <c r="L13" s="333"/>
-      <c r="M13" s="333"/>
+      <c r="L13" s="336"/>
+      <c r="M13" s="336"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="185" t="s">
@@ -10767,8 +11234,8 @@
       <c r="K14" s="46">
         <v>3</v>
       </c>
-      <c r="L14" s="333"/>
-      <c r="M14" s="333"/>
+      <c r="L14" s="336"/>
+      <c r="M14" s="336"/>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="185" t="s">
@@ -10796,8 +11263,8 @@
       <c r="K15" s="46">
         <v>4</v>
       </c>
-      <c r="L15" s="333"/>
-      <c r="M15" s="333"/>
+      <c r="L15" s="336"/>
+      <c r="M15" s="336"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="185" t="s">
@@ -10825,8 +11292,8 @@
       <c r="K16" s="46">
         <v>5</v>
       </c>
-      <c r="L16" s="333"/>
-      <c r="M16" s="333"/>
+      <c r="L16" s="336"/>
+      <c r="M16" s="336"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="185" t="s">
@@ -10854,8 +11321,8 @@
       <c r="K17" s="46">
         <v>6</v>
       </c>
-      <c r="L17" s="333"/>
-      <c r="M17" s="333"/>
+      <c r="L17" s="336"/>
+      <c r="M17" s="336"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="185" t="s">
@@ -11146,10 +11613,10 @@
       <c r="I29" s="188"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="334" t="s">
+      <c r="B31" s="337" t="s">
         <v>447</v>
       </c>
-      <c r="C31" s="334"/>
+      <c r="C31" s="337"/>
       <c r="D31" s="191"/>
       <c r="E31" s="191"/>
       <c r="F31" s="191"/>
@@ -11210,26 +11677,26 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="15.75">
-      <c r="B3" s="345" t="s">
+      <c r="B3" s="348" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="345"/>
+      <c r="C3" s="348"/>
     </row>
     <row r="6" spans="2:20" ht="13.5" thickBot="1"/>
     <row r="7" spans="2:20" ht="28.5" thickBot="1">
       <c r="B7" s="194"/>
-      <c r="C7" s="348" t="s">
+      <c r="C7" s="351" t="s">
         <v>449</v>
       </c>
-      <c r="D7" s="349"/>
-      <c r="E7" s="348" t="s">
+      <c r="D7" s="352"/>
+      <c r="E7" s="351" t="s">
         <v>450</v>
       </c>
-      <c r="F7" s="349"/>
-      <c r="G7" s="348" t="s">
+      <c r="F7" s="352"/>
+      <c r="G7" s="351" t="s">
         <v>451</v>
       </c>
-      <c r="H7" s="349"/>
+      <c r="H7" s="352"/>
       <c r="I7" s="195"/>
       <c r="J7" s="195"/>
       <c r="K7" s="195"/>
@@ -11258,22 +11725,22 @@
       </c>
       <c r="I8" s="200"/>
       <c r="J8" s="201"/>
-      <c r="K8" s="346" t="s">
+      <c r="K8" s="349" t="s">
         <v>449</v>
       </c>
-      <c r="L8" s="346"/>
-      <c r="M8" s="346" t="s">
+      <c r="L8" s="349"/>
+      <c r="M8" s="349" t="s">
         <v>450</v>
       </c>
-      <c r="N8" s="346"/>
-      <c r="O8" s="346" t="s">
+      <c r="N8" s="349"/>
+      <c r="O8" s="349" t="s">
         <v>451</v>
       </c>
-      <c r="P8" s="346"/>
-      <c r="Q8" s="347"/>
-      <c r="R8" s="347"/>
-      <c r="S8" s="347"/>
-      <c r="T8" s="347"/>
+      <c r="P8" s="349"/>
+      <c r="Q8" s="350"/>
+      <c r="R8" s="350"/>
+      <c r="S8" s="350"/>
+      <c r="T8" s="350"/>
     </row>
     <row r="9" spans="2:20">
       <c r="B9" s="202" t="s">
@@ -13269,10 +13736,10 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="I7" s="352" t="s">
+      <c r="I7" s="355" t="s">
         <v>461</v>
       </c>
-      <c r="J7" s="353"/>
+      <c r="J7" s="356"/>
     </row>
     <row r="8" spans="1:10">
       <c r="I8" s="222"/>
@@ -13285,20 +13752,20 @@
       <c r="G9" s="225" t="s">
         <v>463</v>
       </c>
-      <c r="I9" s="354" t="s">
+      <c r="I9" s="357" t="s">
         <v>464</v>
       </c>
-      <c r="J9" s="355"/>
+      <c r="J9" s="358"/>
     </row>
     <row r="10" spans="1:10">
       <c r="C10" s="224" t="s">
         <v>465</v>
       </c>
       <c r="D10" s="226"/>
-      <c r="E10" s="351" t="s">
+      <c r="E10" s="354" t="s">
         <v>466</v>
       </c>
-      <c r="F10" s="351"/>
+      <c r="F10" s="354"/>
       <c r="G10" s="228">
         <v>1.7</v>
       </c>
@@ -13310,10 +13777,10 @@
         <v>467</v>
       </c>
       <c r="D11" s="226"/>
-      <c r="E11" s="351" t="s">
+      <c r="E11" s="354" t="s">
         <v>466</v>
       </c>
-      <c r="F11" s="351"/>
+      <c r="F11" s="354"/>
       <c r="G11" s="228">
         <v>4.5999999999999996</v>
       </c>
@@ -13329,10 +13796,10 @@
         <v>470</v>
       </c>
       <c r="D12" s="226"/>
-      <c r="E12" s="351" t="s">
+      <c r="E12" s="354" t="s">
         <v>466</v>
       </c>
-      <c r="F12" s="351"/>
+      <c r="F12" s="354"/>
       <c r="G12" s="228">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -13362,10 +13829,10 @@
         <v>472</v>
       </c>
       <c r="D15" s="236"/>
-      <c r="E15" s="350" t="s">
+      <c r="E15" s="353" t="s">
         <v>466</v>
       </c>
-      <c r="F15" s="350"/>
+      <c r="F15" s="353"/>
       <c r="G15" s="238">
         <v>0.92</v>
       </c>
@@ -13375,10 +13842,10 @@
         <v>473</v>
       </c>
       <c r="D16" s="236"/>
-      <c r="E16" s="350" t="s">
+      <c r="E16" s="353" t="s">
         <v>466</v>
       </c>
-      <c r="F16" s="350"/>
+      <c r="F16" s="353"/>
       <c r="G16" s="238">
         <v>5.54</v>
       </c>
@@ -13869,26 +14336,26 @@
     </row>
     <row r="7" spans="2:11" ht="13.5" thickBot="1"/>
     <row r="8" spans="2:11" ht="18" customHeight="1" thickTop="1">
-      <c r="B8" s="299" t="s">
+      <c r="B8" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="301" t="s">
+      <c r="C8" s="304" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="297" t="s">
+      <c r="D8" s="300" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="298"/>
+      <c r="E8" s="301"/>
+      <c r="F8" s="301"/>
+      <c r="G8" s="301"/>
+      <c r="H8" s="301"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B9" s="300"/>
-      <c r="C9" s="302"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="305"/>
       <c r="D9" s="12" t="s">
         <v>21</v>
       </c>
@@ -14394,12 +14861,12 @@
       <c r="B4" s="248" t="s">
         <v>401</v>
       </c>
-      <c r="G4" s="358" t="s">
+      <c r="G4" s="361" t="s">
         <v>496</v>
       </c>
-      <c r="H4" s="359"/>
-      <c r="I4" s="359"/>
-      <c r="J4" s="360"/>
+      <c r="H4" s="362"/>
+      <c r="I4" s="362"/>
+      <c r="J4" s="363"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="249"/>
@@ -14409,33 +14876,33 @@
     </row>
     <row r="8" spans="2:12" ht="13.5" thickBot="1"/>
     <row r="9" spans="2:12" ht="13.5" thickTop="1">
-      <c r="B9" s="362" t="s">
+      <c r="B9" s="365" t="s">
         <v>498</v>
       </c>
-      <c r="C9" s="363"/>
+      <c r="C9" s="366"/>
       <c r="F9" s="250" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B10" s="364"/>
-      <c r="C10" s="365"/>
+      <c r="B10" s="367"/>
+      <c r="C10" s="368"/>
     </row>
     <row r="11" spans="2:12" ht="13.5" thickTop="1">
-      <c r="G11" s="361" t="s">
+      <c r="G11" s="364" t="s">
         <v>500</v>
       </c>
-      <c r="H11" s="361"/>
-      <c r="I11" s="361"/>
-      <c r="J11" s="361"/>
-      <c r="K11" s="361"/>
-      <c r="L11" s="361"/>
+      <c r="H11" s="364"/>
+      <c r="I11" s="364"/>
+      <c r="J11" s="364"/>
+      <c r="K11" s="364"/>
+      <c r="L11" s="364"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="356" t="s">
+      <c r="B12" s="359" t="s">
         <v>501</v>
       </c>
-      <c r="C12" s="356"/>
+      <c r="C12" s="359"/>
       <c r="F12" s="251"/>
       <c r="G12" s="252">
         <v>0.75</v>
@@ -14463,7 +14930,7 @@
       <c r="C13" s="254">
         <v>10000</v>
       </c>
-      <c r="E13" s="357" t="s">
+      <c r="E13" s="360" t="s">
         <v>503</v>
       </c>
       <c r="F13" s="252">
@@ -14483,7 +14950,7 @@
       <c r="C14" s="51">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E14" s="357"/>
+      <c r="E14" s="360"/>
       <c r="F14" s="252">
         <v>0.15</v>
       </c>
@@ -14501,7 +14968,7 @@
       <c r="C15" s="256">
         <v>0.3</v>
       </c>
-      <c r="E15" s="357"/>
+      <c r="E15" s="360"/>
       <c r="F15" s="252">
         <v>0.2</v>
       </c>
@@ -14519,7 +14986,7 @@
       <c r="C16" s="256">
         <v>0.85</v>
       </c>
-      <c r="E16" s="357"/>
+      <c r="E16" s="360"/>
       <c r="F16" s="252">
         <v>0.25</v>
       </c>
@@ -14532,7 +14999,7 @@
     </row>
     <row r="17" spans="2:12">
       <c r="C17" s="257"/>
-      <c r="E17" s="357"/>
+      <c r="E17" s="360"/>
       <c r="F17" s="252">
         <v>0.3</v>
       </c>
@@ -14544,11 +15011,11 @@
       <c r="L17" s="51"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="356" t="s">
+      <c r="B18" s="359" t="s">
         <v>507</v>
       </c>
-      <c r="C18" s="356"/>
-      <c r="E18" s="357"/>
+      <c r="C18" s="359"/>
+      <c r="E18" s="360"/>
       <c r="F18" s="252">
         <v>0.35</v>
       </c>
@@ -14627,21 +15094,21 @@
       </c>
     </row>
     <row r="2" spans="2:20" ht="15.75">
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="372" t="s">
         <v>513</v>
       </c>
-      <c r="C2" s="366"/>
+      <c r="C2" s="372"/>
     </row>
     <row r="3" spans="2:20" ht="58.5" customHeight="1">
-      <c r="B3" s="367" t="s">
+      <c r="B3" s="373" t="s">
         <v>514</v>
       </c>
-      <c r="C3" s="367"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="367"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="373"/>
+      <c r="F3" s="373"/>
+      <c r="G3" s="373"/>
+      <c r="H3" s="373"/>
     </row>
     <row r="4" spans="2:20" ht="9" customHeight="1">
       <c r="B4" s="262"/>
@@ -14653,15 +15120,15 @@
       <c r="H4" s="262"/>
     </row>
     <row r="5" spans="2:20" ht="69" customHeight="1">
-      <c r="B5" s="368" t="s">
+      <c r="B5" s="374" t="s">
         <v>518</v>
       </c>
-      <c r="C5" s="368"/>
-      <c r="D5" s="368"/>
-      <c r="E5" s="368"/>
-      <c r="F5" s="368"/>
-      <c r="G5" s="368"/>
-      <c r="H5" s="368"/>
+      <c r="C5" s="374"/>
+      <c r="D5" s="374"/>
+      <c r="E5" s="374"/>
+      <c r="F5" s="374"/>
+      <c r="G5" s="374"/>
+      <c r="H5" s="374"/>
     </row>
     <row r="9" spans="2:20" ht="27.75">
       <c r="B9" s="263"/>
@@ -15172,17 +15639,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
@@ -15236,23 +15703,23 @@
     </row>
     <row r="4" spans="2:8" ht="13.5" thickBot="1"/>
     <row r="5" spans="2:8" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="307" t="s">
+      <c r="B5" s="310" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="309" t="s">
+      <c r="C5" s="312" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="311" t="s">
+      <c r="D5" s="314" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
     </row>
     <row r="6" spans="2:8" ht="24.95" customHeight="1" thickTop="1">
-      <c r="B6" s="308"/>
-      <c r="C6" s="310"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="313"/>
       <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
@@ -15440,20 +15907,20 @@
     <row r="13" spans="2:8" ht="13.5" thickTop="1"/>
     <row r="16" spans="2:8" ht="13.5" thickBot="1"/>
     <row r="17" spans="2:4" ht="13.5" thickTop="1">
-      <c r="B17" s="313" t="s">
+      <c r="B17" s="316" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="305" t="s">
+      <c r="C17" s="308" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="303" t="s">
+      <c r="D17" s="306" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="314"/>
-      <c r="C18" s="306"/>
-      <c r="D18" s="304"/>
+      <c r="B18" s="317"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="307"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="20" t="s">
@@ -15934,12 +16401,12 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75">
-      <c r="B5" s="317" t="s">
+      <c r="B5" s="320" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="317"/>
-      <c r="D5" s="317"/>
-      <c r="E5" s="317"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="30" t="s">
@@ -15947,7 +16414,7 @@
       </c>
       <c r="C6" s="31">
         <f ca="1">TODAY()</f>
-        <v>41733</v>
+        <v>41740</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="22.5" customHeight="1">
@@ -16191,10 +16658,10 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="40"/>
-      <c r="C22" s="318" t="s">
+      <c r="C22" s="321" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="318"/>
+      <c r="D22" s="321"/>
       <c r="E22" s="41">
         <f>SUM(F9:F18)</f>
         <v>31527.599999999999</v>
@@ -16207,10 +16674,10 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="42"/>
-      <c r="C24" s="315" t="s">
+      <c r="C24" s="318" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="316"/>
+      <c r="D24" s="319"/>
       <c r="E24" s="43">
         <f>SUMIF($H$9:$H$18,"Komputer",$F$9:$F$18)</f>
         <v>9711</v>
@@ -16218,10 +16685,10 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="42"/>
-      <c r="C25" s="315" t="s">
+      <c r="C25" s="318" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="316"/>
+      <c r="D25" s="319"/>
       <c r="E25" s="43">
         <f>SUMIF($H$9:$H$18,"Notebook",$F$9:$F$18)</f>
         <v>18330</v>
@@ -16229,10 +16696,10 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="42"/>
-      <c r="C26" s="315" t="s">
+      <c r="C26" s="318" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="316"/>
+      <c r="D26" s="319"/>
       <c r="E26" s="43">
         <f>SUMIF($H$9:$H$18,"Drukarka",$F$9:$F$18)</f>
         <v>1365</v>
@@ -16930,11 +17397,11 @@
       </c>
       <c r="E7" s="47">
         <f ca="1">TODAY()</f>
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="F7" s="290">
         <f ca="1">LEFT(E7,4)-LEFT(D7,4)</f>
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="G7" s="46"/>
     </row>
@@ -16950,7 +17417,7 @@
       </c>
       <c r="E8" s="47">
         <f t="shared" ref="E8:E15" ca="1" si="0">TODAY()</f>
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="18"/>
@@ -16967,7 +17434,7 @@
       </c>
       <c r="E9" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="F9" s="48"/>
       <c r="G9" s="18"/>
@@ -16984,7 +17451,7 @@
       </c>
       <c r="E10" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="18"/>
@@ -17001,7 +17468,7 @@
       </c>
       <c r="E11" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="18"/>
@@ -17018,7 +17485,7 @@
       </c>
       <c r="E12" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="18"/>
@@ -17035,7 +17502,7 @@
       </c>
       <c r="E13" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="18"/>
@@ -17052,7 +17519,7 @@
       </c>
       <c r="E14" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="18"/>
@@ -17069,7 +17536,7 @@
       </c>
       <c r="E15" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>41733</v>
+        <v>41740</v>
       </c>
       <c r="F15" s="48"/>
       <c r="G15" s="18"/>
